--- a/biology/Zoologie/Hybodus/Hybodus.xlsx
+++ b/biology/Zoologie/Hybodus/Hybodus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hybodus est un genre éteint de poisson cartilagineux fossile. Hybodus est connu du Permien jusqu'à la fin du Crétacé, environ entre 295 et 66 Ma (millions d'années)[1]. Les différentes espèces du genre ont prospéré pendant le Trias, le Jurassique et le Crétacé.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hybodus est un genre éteint de poisson cartilagineux fossile. Hybodus est connu du Permien jusqu'à la fin du Crétacé, environ entre 295 et 66 Ma (millions d'années). Les différentes espèces du genre ont prospéré pendant le Trias, le Jurassique et le Crétacé.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce cousin du requin, dont la taille pouvait atteindre 2 m, vivait dans la même zone géographique que l'imposant reptile marin Liopleurodon (qui pouvait mesurer jusqu'à 6 m) et des crocodiles marins adaptés à la vie en haute mer. À cette époque les requins n'étaient pas les prédateurs suprêmes et craignaient les grands reptiles marins dont ils étaient les proies.
 </t>
@@ -542,7 +556,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Des dizaines d'espèces ont été créées, souvent à partir de dents isolées, parmi lesquelles :
 Hybodus houtienensis
@@ -580,7 +596,9 @@
           <t>Culture populaire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Hybodus apparaît dans le jeu Jurassic Park 3: Park Builder, où il est la créature marine piscivore la plus puissante.
 </t>
